--- a/기획/테이블/캐릭터/NPC/NPC 상호작용 링크 테이블.xlsx
+++ b/기획/테이블/캐릭터/NPC/NPC 상호작용 링크 테이블.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\addmin\Desktop\Unreal\UnrealProject\기획\테이블\캐릭터\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\addmin\Desktop\Unreal\UnrealProject\기획\테이블\캐릭터\NPC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC0C6FBB-857D-45E5-B890-4E1F577EC4DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F2130BF-143C-4FD2-B4EB-AACB3236371B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6480" yWindow="2295" windowWidth="20220" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5655" yWindow="4185" windowWidth="20220" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NPC 상호작용 링크 테이블" sheetId="1" r:id="rId1"/>
@@ -373,10 +373,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -437,7 +437,7 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <v>2000</v>
@@ -460,7 +460,7 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>1500</v>
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <v>5000</v>
@@ -506,7 +506,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6">
         <v>10000</v>
@@ -518,6 +518,29 @@
         <v>20</v>
       </c>
       <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>55</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>503</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>20</v>
+      </c>
+      <c r="G7">
         <v>0</v>
       </c>
     </row>
